--- a/OutputData/Lassa/01_13/Lassa_Combined_01_13.xlsx
+++ b/OutputData/Lassa/01_13/Lassa_Combined_01_13.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>blood (6), NA (2)</t>
+          <t>Blood (6), NA (2)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>blood (4), NA (2)</t>
+          <t>Blood (4), NA (2)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>rectal swab (5)</t>
+          <t>Rectal swab (5)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>blood (170)</t>
+          <t>Blood (170)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>blood (35)</t>
+          <t>Blood (35)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>blood (4)</t>
+          <t>Blood (4)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>blood (64)</t>
+          <t>Blood (64)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>blood (1)</t>
+          <t>Blood (1)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>blood (34), NA (17)</t>
+          <t>Blood (34), NA (17)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>blood (18)</t>
+          <t>Blood (18)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NA (127), blood (14)</t>
+          <t>NA (127), Blood (14)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>tissue (52)</t>
+          <t>Tissue (52)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>blood (113), blood and kidney (8), kidney (6), blood and spleen (4), blood and liver (1)</t>
+          <t>Blood (113), Blood and kidney (8), Kidney (6), Blood and spleen (4), Blood and liver (1)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>blood (207), csf (6), breast milk (1)</t>
+          <t>Blood (207), Csf (6), Breast milk (1)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>brain (18)</t>
+          <t>Brain (18)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>blood (3)</t>
+          <t>Blood (3)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>blood (179)</t>
+          <t>Blood (179)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>blood (2)</t>
+          <t>Blood (2)</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>blood (14)</t>
+          <t>Blood (14)</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>blood (156)</t>
+          <t>Blood (156)</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>blood (37), NA (3)</t>
+          <t>Blood (37), NA (3)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>blood (85)</t>
+          <t>Blood (85)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>blood (28)</t>
+          <t>Blood (28)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>blood (30)</t>
+          <t>Blood (30)</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>blood (40)</t>
+          <t>Blood (40)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>blood (26), NA (21)</t>
+          <t>Blood (26), NA (21)</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>blood (3)</t>
+          <t>Blood (3)</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>blood (15)</t>
+          <t>Blood (15)</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>liver and lung (12)</t>
+          <t>Liver and lung (12)</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>blood (254)</t>
+          <t>Blood (254)</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>blood (4)</t>
+          <t>Blood (4)</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>blood (62), pleural fluid (2), urine (2), lung (2)</t>
+          <t>Blood (62), Pleural fluid (2), Urine (2), Lung (2)</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>blood (4)</t>
+          <t>Blood (4)</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>blood (6)</t>
+          <t>Blood (6)</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
